--- a/biology/Microbiologie/Blastocystidae/Blastocystidae.xlsx
+++ b/biology/Microbiologie/Blastocystidae/Blastocystidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Blastocystidae sont une famille de chromistes de l'embranchement des Bigyra, de la classe des Blastocystea et de l’ordre des Blastocystida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Blastocystis, formé du préfixe blast, « embryon ; germe ; rejeton », et du suffixe grec κύστις / kýstis, « vessie ; poche »,
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Blastocystis ont des morphologies variées. Quatre formes sont souvent décrites : vacuolaire, granulaire, amiboïde et kyste. La morphologie de l'organisme dépend largement des conditions environnementales notamment de l'oxygène. La présence de toutes ces formes dans l'intestin de l'hôte n'est pas clairement explicitée[1],[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Blastocystis ont des morphologies variées. Quatre formes sont souvent décrites : vacuolaire, granulaire, amiboïde et kyste. La morphologie de l'organisme dépend largement des conditions environnementales notamment de l'oxygène. La présence de toutes ces formes dans l'intestin de l'hôte n'est pas clairement explicitée.
 </t>
         </is>
       </c>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,9 +617,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (10 septembre 2022)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (10 septembre 2022) :
 Blastocystis A.G.Alexeieff, 1911</t>
         </is>
       </c>
@@ -630,9 +650,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Blastocystidae A.G.Alexeieff, 1914[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Blastocystidae A.G.Alexeieff, 1914.
 </t>
         </is>
       </c>
@@ -661,7 +683,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Alexeieff, A. (1914). Sur le cycle évolutif d’une haplosporidie (Ichthyosporidium gasterophilum Caullery et Mesnil). Archives de Zoologie expérimentale et générale 54(2):  30-44, 4 figures.</t>
         </is>
